--- a/Deepwater_Sampling.xlsx
+++ b/Deepwater_Sampling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spccloud-my.sharepoint.com/personal/alexandrep_spc_int/Documents/Documents/Data/Sampling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spccloud-my.sharepoint.com/personal/alexandrep_spc_int/Documents/Bureau/Gitrepositary/Sampling_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="925" documentId="8_{718C8E7E-BBB8-4A7D-B776-1D19B25DD7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B3BF321-0D7E-4027-95BC-017FB36DF856}"/>
+  <xr:revisionPtr revIDLastSave="1142" documentId="8_{718C8E7E-BBB8-4A7D-B776-1D19B25DD7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{808129EE-F38D-4F3A-8038-7D47ABD36C0E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5237C43-518A-40A4-A7F4-1936AB3DAB82}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F5237C43-518A-40A4-A7F4-1936AB3DAB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="185">
   <si>
     <t>Fish code</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Genetics</t>
   </si>
   <si>
-    <t>Stomach Intact</t>
-  </si>
-  <si>
     <t>Stomach Content</t>
   </si>
   <si>
@@ -504,6 +501,96 @@
   </si>
   <si>
     <t>Month</t>
+  </si>
+  <si>
+    <t>ETC251226_01</t>
+  </si>
+  <si>
+    <t>ETC251226_02</t>
+  </si>
+  <si>
+    <t>ETC251226_03</t>
+  </si>
+  <si>
+    <t>ETC251226_04</t>
+  </si>
+  <si>
+    <t>ETC251226_05</t>
+  </si>
+  <si>
+    <t>ETC251226_06</t>
+  </si>
+  <si>
+    <t>ETC251226_07</t>
+  </si>
+  <si>
+    <t>ETC251226_08</t>
+  </si>
+  <si>
+    <t>ETC251226_09</t>
+  </si>
+  <si>
+    <t>ETC251226_10</t>
+  </si>
+  <si>
+    <t>ETC251226_11</t>
+  </si>
+  <si>
+    <t>LRY251226_01</t>
+  </si>
+  <si>
+    <t>ETA251226_01</t>
+  </si>
+  <si>
+    <t>ETA251226_02</t>
+  </si>
+  <si>
+    <t>ETB251226_01</t>
+  </si>
+  <si>
+    <t>ETB251226_02</t>
+  </si>
+  <si>
+    <t>Passe mato</t>
+  </si>
+  <si>
+    <t>1B1G</t>
+  </si>
+  <si>
+    <t>Stage 4?</t>
+  </si>
+  <si>
+    <t>ETC260201_01</t>
+  </si>
+  <si>
+    <t>ETC260201_02</t>
+  </si>
+  <si>
+    <t>ETC260201_03</t>
+  </si>
+  <si>
+    <t>ETC260201_04</t>
+  </si>
+  <si>
+    <t>ETA260201_01</t>
+  </si>
+  <si>
+    <t>ETA260201_02</t>
+  </si>
+  <si>
+    <t>ETA260201_03</t>
+  </si>
+  <si>
+    <t>ETA260201_04</t>
+  </si>
+  <si>
+    <t>ETA260201_05</t>
+  </si>
+  <si>
+    <t>ETA260201_06</t>
+  </si>
+  <si>
+    <t>Kouaré</t>
   </si>
 </sst>
 </file>
@@ -956,25 +1043,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42926E2F-29B1-4C8C-9248-0C7BA423F5EA}">
-  <dimension ref="A1:AF75"/>
+  <dimension ref="A1:AE101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC97" sqref="AC97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="25" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="25" width="10.81640625" customWidth="1"/>
     <col min="27" max="27" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,7 +1075,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1045,7 +1132,7 @@
         <v>21</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>22</v>
@@ -1057,7 +1144,7 @@
         <v>24</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>25</v>
@@ -1065,22 +1152,19 @@
       <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
       </c>
       <c r="D2" s="3">
         <v>45922</v>
@@ -1090,22 +1174,22 @@
         <v>septembre</v>
       </c>
       <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2">
         <v>280</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2">
         <v>852</v>
@@ -1114,7 +1198,7 @@
         <v>525</v>
       </c>
       <c r="U2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V2">
         <v>2</v>
@@ -1123,27 +1207,30 @@
         <v>2</v>
       </c>
       <c r="Z2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
       </c>
       <c r="D3" s="3">
         <v>45922</v>
@@ -1153,22 +1240,22 @@
         <v>septembre</v>
       </c>
       <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>280</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3">
         <v>855</v>
@@ -1177,7 +1264,7 @@
         <v>537</v>
       </c>
       <c r="U3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V3">
         <v>2</v>
@@ -1186,24 +1273,27 @@
         <v>2</v>
       </c>
       <c r="Z3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
       </c>
       <c r="D4" s="3">
         <v>45922</v>
@@ -1213,22 +1303,22 @@
         <v>septembre</v>
       </c>
       <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>280</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O4">
         <v>918</v>
@@ -1237,7 +1327,7 @@
         <v>552.4</v>
       </c>
       <c r="U4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V4">
         <v>2</v>
@@ -1246,24 +1336,27 @@
         <v>3</v>
       </c>
       <c r="Z4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3">
         <v>45922</v>
@@ -1273,22 +1366,22 @@
         <v>septembre</v>
       </c>
       <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5">
         <v>280</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O5">
         <v>1017</v>
@@ -1297,30 +1390,33 @@
         <v>802</v>
       </c>
       <c r="U5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V5">
         <v>5</v>
       </c>
       <c r="Z5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3">
         <v>45922</v>
@@ -1330,22 +1426,22 @@
         <v>septembre</v>
       </c>
       <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6">
         <v>280</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O6">
         <v>1198</v>
@@ -1354,7 +1450,7 @@
         <v>968</v>
       </c>
       <c r="U6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V6">
         <v>2</v>
@@ -1363,24 +1459,27 @@
         <v>104</v>
       </c>
       <c r="Z6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3">
         <v>45922</v>
@@ -1390,22 +1489,22 @@
         <v>septembre</v>
       </c>
       <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7">
         <v>280</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O7">
         <v>1180</v>
@@ -1414,7 +1513,7 @@
         <v>940</v>
       </c>
       <c r="U7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V7">
         <v>2</v>
@@ -1423,24 +1522,27 @@
         <v>98</v>
       </c>
       <c r="Z7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="3">
         <v>45905</v>
@@ -1450,48 +1552,51 @@
         <v>septembre</v>
       </c>
       <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" t="s">
         <v>48</v>
-      </c>
-      <c r="K8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" t="s">
-        <v>49</v>
       </c>
       <c r="R8">
         <v>72</v>
       </c>
       <c r="U8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
       </c>
       <c r="D9" s="3">
         <v>45905</v>
@@ -1501,48 +1606,51 @@
         <v>septembre</v>
       </c>
       <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" t="s">
         <v>48</v>
-      </c>
-      <c r="K9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" t="s">
-        <v>49</v>
       </c>
       <c r="R9">
         <v>90</v>
       </c>
       <c r="U9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
       </c>
       <c r="D10" s="3">
         <v>45926</v>
@@ -1552,22 +1660,22 @@
         <v>septembre</v>
       </c>
       <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
         <v>32</v>
       </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J10">
         <v>350</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O10">
         <v>600</v>
@@ -1576,36 +1684,39 @@
         <v>440</v>
       </c>
       <c r="U10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V10">
         <v>2</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE10" t="s">
         <v>72</v>
       </c>
-      <c r="AC10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
       </c>
       <c r="D11" s="3">
         <v>45926</v>
@@ -1615,22 +1726,22 @@
         <v>septembre</v>
       </c>
       <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
         <v>32</v>
       </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11">
         <v>350</v>
       </c>
       <c r="K11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O11">
         <v>725</v>
@@ -1639,7 +1750,7 @@
         <v>535</v>
       </c>
       <c r="U11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V11">
         <v>4</v>
@@ -1648,24 +1759,27 @@
         <v>7</v>
       </c>
       <c r="Z11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
       </c>
       <c r="D12" s="3">
         <v>45926</v>
@@ -1675,22 +1789,22 @@
         <v>septembre</v>
       </c>
       <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
         <v>32</v>
       </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J12">
         <v>350</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12">
         <v>1005</v>
@@ -1699,7 +1813,7 @@
         <v>610</v>
       </c>
       <c r="U12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V12">
         <v>2</v>
@@ -1708,24 +1822,27 @@
         <v>3</v>
       </c>
       <c r="Z12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC12" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
       </c>
       <c r="D13" s="3">
         <v>45926</v>
@@ -1735,22 +1852,22 @@
         <v>septembre</v>
       </c>
       <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
         <v>32</v>
       </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J13">
         <v>350</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13">
         <v>580</v>
@@ -1759,33 +1876,36 @@
         <v>405</v>
       </c>
       <c r="U13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V13">
         <v>2</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
         <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
       </c>
       <c r="D14" s="3">
         <v>45926</v>
@@ -1795,22 +1915,22 @@
         <v>septembre</v>
       </c>
       <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14">
         <v>350</v>
       </c>
       <c r="K14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O14">
         <v>1180</v>
@@ -1819,7 +1939,7 @@
         <v>715</v>
       </c>
       <c r="U14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V14">
         <v>2</v>
@@ -1828,24 +1948,27 @@
         <v>10</v>
       </c>
       <c r="Z14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
         <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
       </c>
       <c r="D15" s="3">
         <v>45926</v>
@@ -1855,22 +1978,22 @@
         <v>septembre</v>
       </c>
       <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J15">
         <v>350</v>
       </c>
       <c r="K15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O15">
         <v>305</v>
@@ -1882,33 +2005,36 @@
         <v>393</v>
       </c>
       <c r="U15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V15">
         <v>2</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
         <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
       </c>
       <c r="D16" s="3">
         <v>45926</v>
@@ -1918,22 +2044,22 @@
         <v>septembre</v>
       </c>
       <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
         <v>32</v>
       </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J16">
         <v>350</v>
       </c>
       <c r="K16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O16">
         <v>289</v>
@@ -1945,33 +2071,36 @@
         <v>336</v>
       </c>
       <c r="U16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V16">
         <v>3</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
         <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
       </c>
       <c r="D17" s="3">
         <v>45926</v>
@@ -1981,22 +2110,22 @@
         <v>septembre</v>
       </c>
       <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
         <v>32</v>
       </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J17">
         <v>350</v>
       </c>
       <c r="K17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O17">
         <v>287</v>
@@ -2008,33 +2137,36 @@
         <v>294</v>
       </c>
       <c r="U17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V17">
         <v>3</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
         <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
       </c>
       <c r="D18" s="3">
         <v>45926</v>
@@ -2044,22 +2176,22 @@
         <v>septembre</v>
       </c>
       <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
         <v>32</v>
       </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J18">
         <v>350</v>
       </c>
       <c r="K18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O18">
         <v>460</v>
@@ -2068,33 +2200,36 @@
         <v>390</v>
       </c>
       <c r="U18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V18" t="s">
+        <v>68</v>
+      </c>
+      <c r="X18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X18" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="Z18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
         <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
       </c>
       <c r="D19" s="3">
         <v>45926</v>
@@ -2104,22 +2239,22 @@
         <v>septembre</v>
       </c>
       <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
         <v>32</v>
       </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J19">
         <v>350</v>
       </c>
       <c r="K19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O19">
         <v>408</v>
@@ -2131,7 +2266,7 @@
         <v>768</v>
       </c>
       <c r="U19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V19">
         <v>2</v>
@@ -2140,24 +2275,27 @@
         <v>4</v>
       </c>
       <c r="Z19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AB19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
         <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
       </c>
       <c r="D20" s="3">
         <v>45926</v>
@@ -2167,22 +2305,22 @@
         <v>septembre</v>
       </c>
       <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
         <v>32</v>
       </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J20">
         <v>350</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O20">
         <v>411</v>
@@ -2194,7 +2332,7 @@
         <v>811</v>
       </c>
       <c r="U20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V20">
         <v>2</v>
@@ -2203,24 +2341,27 @@
         <v>6</v>
       </c>
       <c r="Z20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
         <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
       </c>
       <c r="D21" s="3">
         <v>45926</v>
@@ -2230,22 +2371,22 @@
         <v>septembre</v>
       </c>
       <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
         <v>32</v>
       </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J21">
         <v>350</v>
       </c>
       <c r="K21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O21">
         <v>324</v>
@@ -2257,7 +2398,7 @@
         <v>404</v>
       </c>
       <c r="U21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V21">
         <v>2</v>
@@ -2266,24 +2407,27 @@
         <v>4</v>
       </c>
       <c r="Z21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
       </c>
       <c r="D22" s="3">
         <v>45926</v>
@@ -2293,22 +2437,22 @@
         <v>septembre</v>
       </c>
       <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
         <v>32</v>
       </c>
-      <c r="G22" t="s">
-        <v>33</v>
-      </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J22">
         <v>350</v>
       </c>
       <c r="K22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O22">
         <v>237</v>
@@ -2320,30 +2464,33 @@
         <v>140</v>
       </c>
       <c r="U22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V22">
         <v>1</v>
       </c>
       <c r="Z22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
         <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
       </c>
       <c r="D23" s="3">
         <v>45926</v>
@@ -2353,19 +2500,19 @@
         <v>septembre</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23">
         <v>270</v>
@@ -2374,27 +2521,30 @@
         <v>80</v>
       </c>
       <c r="U23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
         <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
       </c>
       <c r="D24" s="3">
         <v>45944</v>
@@ -2404,19 +2554,19 @@
         <v>octobre</v>
       </c>
       <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
         <v>32</v>
       </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O24">
         <v>865</v>
@@ -2425,7 +2575,7 @@
         <v>565</v>
       </c>
       <c r="U24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V24">
         <v>2</v>
@@ -2434,24 +2584,27 @@
         <v>3</v>
       </c>
       <c r="Z24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
         <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
       </c>
       <c r="D25" s="3">
         <v>45944</v>
@@ -2461,19 +2614,19 @@
         <v>octobre</v>
       </c>
       <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
         <v>32</v>
       </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O25">
         <v>682</v>
@@ -2482,33 +2635,36 @@
         <v>479</v>
       </c>
       <c r="U25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V25">
         <v>2</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
         <v>82</v>
-      </c>
-      <c r="C26" t="s">
-        <v>83</v>
       </c>
       <c r="D26" s="3">
         <v>45944</v>
@@ -2518,19 +2674,19 @@
         <v>octobre</v>
       </c>
       <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
         <v>32</v>
       </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O26">
         <v>410</v>
@@ -2539,33 +2695,36 @@
         <v>345</v>
       </c>
       <c r="U26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V26">
         <v>1</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
         <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>46</v>
       </c>
       <c r="D27" s="3">
         <v>45944</v>
@@ -2575,19 +2734,19 @@
         <v>octobre</v>
       </c>
       <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
         <v>32</v>
       </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
       <c r="H27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O27">
         <v>255</v>
@@ -2596,33 +2755,36 @@
         <v>210</v>
       </c>
       <c r="U27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V27">
         <v>1</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
         <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>46</v>
       </c>
       <c r="D28" s="3">
         <v>45944</v>
@@ -2632,19 +2794,19 @@
         <v>octobre</v>
       </c>
       <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
         <v>32</v>
       </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
       <c r="H28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O28">
         <v>365</v>
@@ -2653,27 +2815,30 @@
         <v>325</v>
       </c>
       <c r="U28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
         <v>81</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>82</v>
-      </c>
-      <c r="C29" t="s">
-        <v>83</v>
       </c>
       <c r="D29" s="3">
         <v>45944</v>
@@ -2683,19 +2848,19 @@
         <v>octobre</v>
       </c>
       <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
         <v>32</v>
       </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O29">
         <v>385</v>
@@ -2704,27 +2869,30 @@
         <v>322</v>
       </c>
       <c r="U29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
         <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>67</v>
       </c>
       <c r="D30" s="3">
         <v>45944</v>
@@ -2734,19 +2902,19 @@
         <v>octobre</v>
       </c>
       <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
         <v>32</v>
       </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
       <c r="H30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O30">
         <v>296</v>
@@ -2755,33 +2923,36 @@
         <v>249</v>
       </c>
       <c r="U30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
         <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
       </c>
       <c r="D31" s="3">
         <v>45944</v>
@@ -2791,19 +2962,19 @@
         <v>octobre</v>
       </c>
       <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
         <v>32</v>
       </c>
-      <c r="G31" t="s">
-        <v>33</v>
-      </c>
       <c r="H31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O31">
         <v>265</v>
@@ -2812,33 +2983,36 @@
         <v>230</v>
       </c>
       <c r="U31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V31">
         <v>4</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
         <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>67</v>
       </c>
       <c r="D32" s="3">
         <v>45944</v>
@@ -2848,19 +3022,19 @@
         <v>octobre</v>
       </c>
       <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
         <v>32</v>
       </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
       <c r="H32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O32">
         <v>296</v>
@@ -2869,33 +3043,36 @@
         <v>255</v>
       </c>
       <c r="U32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V32">
         <v>4</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
         <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>67</v>
       </c>
       <c r="D33" s="3">
         <v>45944</v>
@@ -2905,19 +3082,19 @@
         <v>octobre</v>
       </c>
       <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
         <v>32</v>
       </c>
-      <c r="G33" t="s">
-        <v>33</v>
-      </c>
       <c r="H33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O33">
         <v>310</v>
@@ -2926,33 +3103,36 @@
         <v>262</v>
       </c>
       <c r="U33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V33">
         <v>2</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
         <v>30</v>
-      </c>
-      <c r="C34" t="s">
-        <v>31</v>
       </c>
       <c r="D34" s="3">
         <v>45958</v>
@@ -2962,19 +3142,19 @@
         <v>octobre</v>
       </c>
       <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
         <v>32</v>
       </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
       <c r="H34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O34">
         <v>1350</v>
@@ -2983,7 +3163,7 @@
         <v>880</v>
       </c>
       <c r="U34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V34">
         <v>4</v>
@@ -2992,24 +3172,27 @@
         <v>200</v>
       </c>
       <c r="Z34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
         <v>30</v>
-      </c>
-      <c r="C35" t="s">
-        <v>31</v>
       </c>
       <c r="D35" s="3">
         <v>45958</v>
@@ -3019,19 +3202,19 @@
         <v>octobre</v>
       </c>
       <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s">
         <v>32</v>
       </c>
-      <c r="G35" t="s">
-        <v>33</v>
-      </c>
       <c r="H35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O35">
         <v>569</v>
@@ -3040,27 +3223,30 @@
         <v>380</v>
       </c>
       <c r="U35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
         <v>30</v>
-      </c>
-      <c r="C36" t="s">
-        <v>31</v>
       </c>
       <c r="D36" s="3">
         <v>45958</v>
@@ -3070,19 +3256,19 @@
         <v>octobre</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
       </c>
-      <c r="G36" t="s">
-        <v>33</v>
-      </c>
       <c r="H36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O36">
         <v>437</v>
@@ -3091,27 +3277,30 @@
         <v>326</v>
       </c>
       <c r="U36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
         <v>45</v>
-      </c>
-      <c r="C37" t="s">
-        <v>46</v>
       </c>
       <c r="D37" s="3">
         <v>45958</v>
@@ -3121,19 +3310,19 @@
         <v>octobre</v>
       </c>
       <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
         <v>32</v>
       </c>
-      <c r="G37" t="s">
-        <v>33</v>
-      </c>
       <c r="H37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O37">
         <v>257</v>
@@ -3142,33 +3331,36 @@
         <v>221</v>
       </c>
       <c r="U37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V37">
         <v>1</v>
       </c>
       <c r="X37" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
         <v>30</v>
-      </c>
-      <c r="C38" t="s">
-        <v>31</v>
       </c>
       <c r="D38" s="3">
         <v>45958</v>
@@ -3178,19 +3370,19 @@
         <v>octobre</v>
       </c>
       <c r="F38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s">
         <v>32</v>
       </c>
-      <c r="G38" t="s">
-        <v>33</v>
-      </c>
       <c r="H38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O38">
         <v>315</v>
@@ -3199,36 +3391,39 @@
         <v>257</v>
       </c>
       <c r="U38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V38">
         <v>1</v>
       </c>
       <c r="X38" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC38" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
         <v>30</v>
-      </c>
-      <c r="C39" t="s">
-        <v>31</v>
       </c>
       <c r="D39" s="3">
         <v>45958</v>
@@ -3238,19 +3433,19 @@
         <v>octobre</v>
       </c>
       <c r="F39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" t="s">
         <v>32</v>
       </c>
-      <c r="G39" t="s">
-        <v>33</v>
-      </c>
       <c r="H39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O39">
         <v>330</v>
@@ -3259,36 +3454,39 @@
         <v>259</v>
       </c>
       <c r="U39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V39">
         <v>1</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
         <v>66</v>
-      </c>
-      <c r="C40" t="s">
-        <v>67</v>
       </c>
       <c r="D40" s="3">
         <v>45958</v>
@@ -3298,19 +3496,19 @@
         <v>octobre</v>
       </c>
       <c r="F40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s">
         <v>32</v>
       </c>
-      <c r="G40" t="s">
-        <v>33</v>
-      </c>
       <c r="H40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O40">
         <v>273</v>
@@ -3319,33 +3517,36 @@
         <v>235</v>
       </c>
       <c r="U40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V40">
         <v>2</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
         <v>66</v>
-      </c>
-      <c r="C41" t="s">
-        <v>67</v>
       </c>
       <c r="D41" s="3">
         <v>45958</v>
@@ -3355,19 +3556,19 @@
         <v>octobre</v>
       </c>
       <c r="F41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s">
         <v>32</v>
       </c>
-      <c r="G41" t="s">
-        <v>33</v>
-      </c>
       <c r="H41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O41">
         <v>292</v>
@@ -3376,33 +3577,36 @@
         <v>235</v>
       </c>
       <c r="U41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V41">
         <v>2</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC41" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
         <v>45</v>
-      </c>
-      <c r="C42" t="s">
-        <v>46</v>
       </c>
       <c r="D42" s="3">
         <v>45958</v>
@@ -3412,19 +3616,19 @@
         <v>octobre</v>
       </c>
       <c r="F42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" t="s">
         <v>32</v>
       </c>
-      <c r="G42" t="s">
-        <v>33</v>
-      </c>
       <c r="H42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O42">
         <v>425</v>
@@ -3433,7 +3637,7 @@
         <v>370</v>
       </c>
       <c r="U42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V42">
         <v>3</v>
@@ -3442,27 +3646,30 @@
         <v>1</v>
       </c>
       <c r="Z42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC42" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
         <v>30</v>
-      </c>
-      <c r="C43" t="s">
-        <v>31</v>
       </c>
       <c r="D43" s="3">
         <v>45958</v>
@@ -3472,19 +3679,19 @@
         <v>octobre</v>
       </c>
       <c r="F43" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" t="s">
         <v>32</v>
       </c>
-      <c r="G43" t="s">
-        <v>33</v>
-      </c>
       <c r="H43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O43">
         <v>735</v>
@@ -3493,7 +3700,7 @@
         <v>490</v>
       </c>
       <c r="U43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V43">
         <v>3</v>
@@ -3502,24 +3709,27 @@
         <v>3</v>
       </c>
       <c r="Z43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC43" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
         <v>45</v>
-      </c>
-      <c r="C44" t="s">
-        <v>46</v>
       </c>
       <c r="D44" s="3">
         <v>45958</v>
@@ -3529,19 +3739,19 @@
         <v>octobre</v>
       </c>
       <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
         <v>32</v>
       </c>
-      <c r="G44" t="s">
-        <v>33</v>
-      </c>
       <c r="H44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O44">
         <v>455</v>
@@ -3550,33 +3760,36 @@
         <v>382</v>
       </c>
       <c r="U44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V44">
         <v>1</v>
       </c>
       <c r="X44" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC44" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
         <v>30</v>
-      </c>
-      <c r="C45" t="s">
-        <v>31</v>
       </c>
       <c r="D45" s="3">
         <v>45958</v>
@@ -3586,19 +3799,19 @@
         <v>octobre</v>
       </c>
       <c r="F45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s">
         <v>32</v>
       </c>
-      <c r="G45" t="s">
-        <v>33</v>
-      </c>
       <c r="H45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O45">
         <v>650</v>
@@ -3607,7 +3820,7 @@
         <v>445</v>
       </c>
       <c r="U45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V45" s="7">
         <v>0.66666666666666663</v>
@@ -3616,24 +3829,27 @@
         <v>4</v>
       </c>
       <c r="Z45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
         <v>45</v>
-      </c>
-      <c r="C46" t="s">
-        <v>46</v>
       </c>
       <c r="D46" s="3">
         <v>45958</v>
@@ -3643,19 +3859,19 @@
         <v>octobre</v>
       </c>
       <c r="F46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s">
         <v>32</v>
       </c>
-      <c r="G46" t="s">
-        <v>33</v>
-      </c>
       <c r="H46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O46">
         <v>430</v>
@@ -3664,33 +3880,36 @@
         <v>340</v>
       </c>
       <c r="U46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V46">
         <v>1</v>
       </c>
       <c r="X46" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC46" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
         <v>66</v>
-      </c>
-      <c r="C47" t="s">
-        <v>67</v>
       </c>
       <c r="D47" s="3">
         <v>45958</v>
@@ -3700,19 +3919,19 @@
         <v>octobre</v>
       </c>
       <c r="F47" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" t="s">
         <v>32</v>
       </c>
-      <c r="G47" t="s">
-        <v>33</v>
-      </c>
       <c r="H47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O47">
         <v>285</v>
@@ -3721,27 +3940,30 @@
         <v>242</v>
       </c>
       <c r="U47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
         <v>30</v>
-      </c>
-      <c r="C48" t="s">
-        <v>31</v>
       </c>
       <c r="D48" s="3">
         <v>45958</v>
@@ -3751,19 +3973,19 @@
         <v>octobre</v>
       </c>
       <c r="F48" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" t="s">
         <v>32</v>
       </c>
-      <c r="G48" t="s">
-        <v>33</v>
-      </c>
       <c r="H48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O48">
         <v>535</v>
@@ -3772,33 +3994,36 @@
         <v>388</v>
       </c>
       <c r="U48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V48" s="7">
         <v>0.5</v>
       </c>
       <c r="X48" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" t="s">
         <v>30</v>
-      </c>
-      <c r="C49" t="s">
-        <v>31</v>
       </c>
       <c r="D49" s="3">
         <v>45958</v>
@@ -3808,19 +4033,19 @@
         <v>octobre</v>
       </c>
       <c r="F49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" t="s">
         <v>32</v>
       </c>
-      <c r="G49" t="s">
-        <v>33</v>
-      </c>
       <c r="H49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O49">
         <v>575</v>
@@ -3829,33 +4054,36 @@
         <v>397</v>
       </c>
       <c r="U49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V49">
         <v>2</v>
       </c>
       <c r="X49" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
         <v>66</v>
-      </c>
-      <c r="C50" t="s">
-        <v>67</v>
       </c>
       <c r="D50" s="3">
         <v>45958</v>
@@ -3865,19 +4093,19 @@
         <v>octobre</v>
       </c>
       <c r="F50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" t="s">
         <v>32</v>
       </c>
-      <c r="G50" t="s">
-        <v>33</v>
-      </c>
       <c r="H50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O50">
         <v>249</v>
@@ -3886,33 +4114,36 @@
         <v>213</v>
       </c>
       <c r="U50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V50" s="7">
         <v>0.66666666666666663</v>
       </c>
       <c r="X50" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" t="s">
         <v>45</v>
-      </c>
-      <c r="C51" t="s">
-        <v>46</v>
       </c>
       <c r="D51" s="3">
         <v>45958</v>
@@ -3922,19 +4153,19 @@
         <v>octobre</v>
       </c>
       <c r="F51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" t="s">
         <v>32</v>
       </c>
-      <c r="G51" t="s">
-        <v>33</v>
-      </c>
       <c r="H51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O51">
         <v>562</v>
@@ -3943,33 +4174,36 @@
         <v>487</v>
       </c>
       <c r="U51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V51">
         <v>2</v>
       </c>
       <c r="X51" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s">
         <v>45</v>
-      </c>
-      <c r="C52" t="s">
-        <v>46</v>
       </c>
       <c r="D52" s="3">
         <v>45958</v>
@@ -3979,19 +4213,19 @@
         <v>octobre</v>
       </c>
       <c r="F52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" t="s">
         <v>32</v>
       </c>
-      <c r="G52" t="s">
-        <v>33</v>
-      </c>
       <c r="H52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O52">
         <v>293</v>
@@ -4000,33 +4234,36 @@
         <v>253</v>
       </c>
       <c r="U52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V52">
         <v>2</v>
       </c>
       <c r="X52" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
         <v>30</v>
-      </c>
-      <c r="C53" t="s">
-        <v>31</v>
       </c>
       <c r="D53" s="3">
         <v>45964</v>
@@ -4036,19 +4273,19 @@
         <v>novembre</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O53">
         <v>470</v>
@@ -4057,33 +4294,36 @@
         <v>359</v>
       </c>
       <c r="U53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V53">
         <v>2</v>
       </c>
       <c r="X53" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
         <v>30</v>
-      </c>
-      <c r="C54" t="s">
-        <v>31</v>
       </c>
       <c r="D54" s="3">
         <v>45964</v>
@@ -4093,19 +4333,19 @@
         <v>novembre</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O54">
         <v>390</v>
@@ -4114,33 +4354,36 @@
         <v>285</v>
       </c>
       <c r="U54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V54" s="7">
         <v>0.5</v>
       </c>
       <c r="X54" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC54" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
         <v>30</v>
-      </c>
-      <c r="C55" t="s">
-        <v>31</v>
       </c>
       <c r="D55" s="3">
         <v>45970</v>
@@ -4150,19 +4393,19 @@
         <v>novembre</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O55">
         <v>645</v>
@@ -4171,27 +4414,30 @@
         <v>440</v>
       </c>
       <c r="U55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
         <v>66</v>
-      </c>
-      <c r="C56" t="s">
-        <v>67</v>
       </c>
       <c r="D56" s="3">
         <v>45970</v>
@@ -4201,19 +4447,19 @@
         <v>novembre</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O56">
         <v>275</v>
@@ -4222,36 +4468,39 @@
         <v>230</v>
       </c>
       <c r="U56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V56">
         <v>2</v>
       </c>
       <c r="X56" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB56" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
         <v>39</v>
       </c>
-      <c r="AC56" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" t="s">
-        <v>40</v>
-      </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D57" s="3">
         <v>45954</v>
@@ -4261,48 +4510,51 @@
         <v>octobre</v>
       </c>
       <c r="F57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H57" t="s">
+        <v>126</v>
+      </c>
+      <c r="I57" t="s">
         <v>127</v>
       </c>
-      <c r="I57" t="s">
-        <v>128</v>
-      </c>
       <c r="K57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P57">
         <v>442</v>
       </c>
       <c r="U57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC57" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
         <v>39</v>
       </c>
-      <c r="AF57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B58" t="s">
-        <v>40</v>
-      </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D58" s="3">
         <v>45954</v>
@@ -4312,48 +4564,51 @@
         <v>octobre</v>
       </c>
       <c r="F58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H58" t="s">
+        <v>126</v>
+      </c>
+      <c r="I58" t="s">
         <v>127</v>
       </c>
-      <c r="I58" t="s">
-        <v>128</v>
-      </c>
       <c r="K58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P58">
         <v>334</v>
       </c>
       <c r="U58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC58" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF58" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
         <v>66</v>
-      </c>
-      <c r="C59" t="s">
-        <v>67</v>
       </c>
       <c r="D59" s="3">
         <v>45969</v>
@@ -4363,48 +4618,51 @@
         <v>novembre</v>
       </c>
       <c r="F59" t="s">
+        <v>131</v>
+      </c>
+      <c r="G59" t="s">
         <v>132</v>
       </c>
-      <c r="G59" t="s">
-        <v>133</v>
-      </c>
       <c r="H59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P59">
         <v>415</v>
       </c>
       <c r="U59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC59" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D60" s="3">
         <v>45969</v>
@@ -4414,48 +4672,51 @@
         <v>novembre</v>
       </c>
       <c r="F60" t="s">
+        <v>131</v>
+      </c>
+      <c r="G60" t="s">
         <v>132</v>
       </c>
-      <c r="G60" t="s">
-        <v>133</v>
-      </c>
       <c r="H60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P60">
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC60" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D61" s="3">
         <v>45969</v>
@@ -4465,48 +4726,51 @@
         <v>novembre</v>
       </c>
       <c r="F61" t="s">
+        <v>131</v>
+      </c>
+      <c r="G61" t="s">
         <v>132</v>
       </c>
-      <c r="G61" t="s">
-        <v>133</v>
-      </c>
       <c r="H61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P61">
         <v>295</v>
       </c>
       <c r="U61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC61" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" t="s">
         <v>82</v>
-      </c>
-      <c r="C62" t="s">
-        <v>83</v>
       </c>
       <c r="D62" s="3">
         <v>45980</v>
@@ -4516,22 +4780,22 @@
         <v>novembre</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J62">
         <v>385</v>
       </c>
       <c r="K62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O62">
         <v>891</v>
@@ -4543,7 +4807,7 @@
         <v>8790</v>
       </c>
       <c r="U62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V62">
         <v>2</v>
@@ -4552,24 +4816,27 @@
         <v>25</v>
       </c>
       <c r="Z62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" t="s">
         <v>82</v>
-      </c>
-      <c r="C63" t="s">
-        <v>83</v>
       </c>
       <c r="D63" s="3">
         <v>45980</v>
@@ -4579,22 +4846,22 @@
         <v>novembre</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J63">
         <v>385</v>
       </c>
       <c r="K63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O63">
         <v>330</v>
@@ -4606,33 +4873,36 @@
         <v>430</v>
       </c>
       <c r="U63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V63">
         <v>1</v>
       </c>
       <c r="X63" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC63" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" t="s">
         <v>30</v>
-      </c>
-      <c r="C64" t="s">
-        <v>31</v>
       </c>
       <c r="D64" s="3">
         <v>45980</v>
@@ -4642,22 +4912,22 @@
         <v>novembre</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J64">
         <v>385</v>
       </c>
       <c r="K64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O64">
         <v>727</v>
@@ -4669,7 +4939,7 @@
         <v>1905</v>
       </c>
       <c r="U64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V64">
         <v>5</v>
@@ -4678,24 +4948,27 @@
         <v>5</v>
       </c>
       <c r="Z64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC64" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s">
         <v>30</v>
-      </c>
-      <c r="C65" t="s">
-        <v>31</v>
       </c>
       <c r="D65" s="3">
         <v>45980</v>
@@ -4705,22 +4978,22 @@
         <v>novembre</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J65">
         <v>385</v>
       </c>
       <c r="K65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O65">
         <v>974</v>
@@ -4732,7 +5005,7 @@
         <v>3955</v>
       </c>
       <c r="U65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V65">
         <v>2</v>
@@ -4741,24 +5014,27 @@
         <v>10</v>
       </c>
       <c r="Z65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC65" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
         <v>30</v>
-      </c>
-      <c r="C66" t="s">
-        <v>31</v>
       </c>
       <c r="D66" s="3">
         <v>45980</v>
@@ -4768,22 +5044,22 @@
         <v>novembre</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J66">
         <v>385</v>
       </c>
       <c r="K66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O66">
         <v>601</v>
@@ -4795,58 +5071,61 @@
         <v>1060</v>
       </c>
       <c r="U66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V66">
         <v>1</v>
       </c>
       <c r="X66" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC66" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" t="s">
         <v>30</v>
-      </c>
-      <c r="C67" t="s">
-        <v>31</v>
       </c>
       <c r="D67" s="3">
         <v>45980</v>
       </c>
       <c r="E67" s="3" t="str">
-        <f t="shared" ref="E67:E75" si="1">TEXT(D67,"mmmm")</f>
+        <f t="shared" ref="E67:E101" si="1">TEXT(D67,"mmmm")</f>
         <v>novembre</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J67">
         <v>385</v>
       </c>
       <c r="K67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O67">
         <v>509</v>
@@ -4858,33 +5137,36 @@
         <v>770</v>
       </c>
       <c r="U67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V67">
         <v>1</v>
       </c>
       <c r="X67" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC67" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" t="s">
         <v>45</v>
-      </c>
-      <c r="C68" t="s">
-        <v>46</v>
       </c>
       <c r="D68" s="3">
         <v>45980</v>
@@ -4894,22 +5176,22 @@
         <v>novembre</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J68">
         <v>385</v>
       </c>
       <c r="K68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O68">
         <v>323</v>
@@ -4921,33 +5203,36 @@
         <v>390</v>
       </c>
       <c r="U68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V68">
         <v>2</v>
       </c>
       <c r="X68" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC68" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" t="s">
         <v>66</v>
-      </c>
-      <c r="C69" t="s">
-        <v>67</v>
       </c>
       <c r="D69" s="3">
         <v>45980</v>
@@ -4957,22 +5242,22 @@
         <v>novembre</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J69">
         <v>385</v>
       </c>
       <c r="K69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O69">
         <v>261</v>
@@ -4984,33 +5269,36 @@
         <v>230</v>
       </c>
       <c r="U69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V69">
         <v>2</v>
       </c>
       <c r="X69" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC69" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" t="s">
         <v>66</v>
-      </c>
-      <c r="C70" t="s">
-        <v>67</v>
       </c>
       <c r="D70" s="3">
         <v>45980</v>
@@ -5020,22 +5308,22 @@
         <v>novembre</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J70">
         <v>385</v>
       </c>
       <c r="K70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O70">
         <v>289</v>
@@ -5047,33 +5335,36 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V70">
         <v>2</v>
       </c>
       <c r="X70" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC70" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" t="s">
         <v>146</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>147</v>
-      </c>
-      <c r="C71" t="s">
-        <v>148</v>
       </c>
       <c r="D71" s="3">
         <v>45988</v>
@@ -5083,19 +5374,19 @@
         <v>novembre</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O71">
         <v>454</v>
@@ -5107,33 +5398,36 @@
         <v>994</v>
       </c>
       <c r="U71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V71">
         <v>3</v>
       </c>
       <c r="X71" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC71" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" t="s">
         <v>147</v>
-      </c>
-      <c r="C72" t="s">
-        <v>148</v>
       </c>
       <c r="D72" s="3">
         <v>45988</v>
@@ -5143,19 +5437,19 @@
         <v>novembre</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O72">
         <v>615</v>
@@ -5167,7 +5461,7 @@
         <v>2582</v>
       </c>
       <c r="U72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V72">
         <v>4</v>
@@ -5176,24 +5470,27 @@
         <v>8</v>
       </c>
       <c r="Z72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC72" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B73" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" t="s">
         <v>147</v>
-      </c>
-      <c r="C73" t="s">
-        <v>148</v>
       </c>
       <c r="D73" s="3">
         <v>45988</v>
@@ -5203,19 +5500,19 @@
         <v>novembre</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O73">
         <v>327</v>
@@ -5227,31 +5524,34 @@
         <v>372</v>
       </c>
       <c r="U73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V73">
         <v>1</v>
       </c>
       <c r="X73" s="4"/>
       <c r="Z73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC73" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B74" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" t="s">
         <v>147</v>
-      </c>
-      <c r="C74" t="s">
-        <v>148</v>
       </c>
       <c r="D74" s="3">
         <v>45988</v>
@@ -5261,19 +5561,19 @@
         <v>novembre</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O74">
         <v>344</v>
@@ -5285,33 +5585,36 @@
         <v>400</v>
       </c>
       <c r="U74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V74">
         <v>1</v>
       </c>
       <c r="X74" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC74" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
         <v>30</v>
-      </c>
-      <c r="C75" t="s">
-        <v>31</v>
       </c>
       <c r="D75" s="3">
         <v>45988</v>
@@ -5321,19 +5624,19 @@
         <v>novembre</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O75">
         <v>560</v>
@@ -5345,22 +5648,1580 @@
         <v>852</v>
       </c>
       <c r="U75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V75">
         <v>1</v>
       </c>
       <c r="X75" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC75" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="3">
+        <v>46017</v>
+      </c>
+      <c r="E76" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>décembre</v>
+      </c>
+      <c r="F76" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" t="s">
+        <v>171</v>
+      </c>
+      <c r="H76" t="s">
+        <v>33</v>
+      </c>
+      <c r="I76" t="s">
+        <v>34</v>
+      </c>
+      <c r="K76" t="s">
+        <v>35</v>
+      </c>
+      <c r="O76">
+        <v>841</v>
+      </c>
+      <c r="P76">
+        <v>521</v>
+      </c>
+      <c r="U76" t="s">
+        <v>37</v>
+      </c>
+      <c r="V76">
+        <v>3</v>
+      </c>
+      <c r="X76">
+        <v>1</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="3">
+        <v>46017</v>
+      </c>
+      <c r="E77" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>décembre</v>
+      </c>
+      <c r="F77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s">
+        <v>171</v>
+      </c>
+      <c r="H77" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" t="s">
+        <v>34</v>
+      </c>
+      <c r="K77" t="s">
+        <v>35</v>
+      </c>
+      <c r="O77">
+        <v>1240</v>
+      </c>
+      <c r="P77">
+        <v>742</v>
+      </c>
+      <c r="U77" t="s">
+        <v>36</v>
+      </c>
+      <c r="V77">
+        <v>3</v>
+      </c>
+      <c r="X77">
+        <v>28</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="3">
+        <v>46017</v>
+      </c>
+      <c r="E78" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>décembre</v>
+      </c>
+      <c r="F78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" t="s">
+        <v>171</v>
+      </c>
+      <c r="H78" t="s">
+        <v>33</v>
+      </c>
+      <c r="I78" t="s">
+        <v>34</v>
+      </c>
+      <c r="K78" t="s">
+        <v>35</v>
+      </c>
+      <c r="O78">
+        <v>1071</v>
+      </c>
+      <c r="P78">
+        <v>626</v>
+      </c>
+      <c r="U78" t="s">
+        <v>37</v>
+      </c>
+      <c r="V78">
+        <v>2</v>
+      </c>
+      <c r="X78">
+        <v>12</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="3">
+        <v>46017</v>
+      </c>
+      <c r="E79" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>décembre</v>
+      </c>
+      <c r="F79" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" t="s">
+        <v>171</v>
+      </c>
+      <c r="H79" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79" t="s">
+        <v>34</v>
+      </c>
+      <c r="K79" t="s">
+        <v>35</v>
+      </c>
+      <c r="O79">
+        <v>1096</v>
+      </c>
+      <c r="P79">
+        <v>675</v>
+      </c>
+      <c r="U79" t="s">
+        <v>37</v>
+      </c>
+      <c r="V79">
+        <v>3</v>
+      </c>
+      <c r="X79">
+        <v>1</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="3">
+        <v>46017</v>
+      </c>
+      <c r="E80" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>décembre</v>
+      </c>
+      <c r="F80" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" t="s">
+        <v>171</v>
+      </c>
+      <c r="H80" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" t="s">
+        <v>34</v>
+      </c>
+      <c r="K80" t="s">
+        <v>35</v>
+      </c>
+      <c r="O80">
+        <v>582</v>
+      </c>
+      <c r="P80">
+        <v>414</v>
+      </c>
+      <c r="U80" t="s">
+        <v>37</v>
+      </c>
+      <c r="V80">
+        <v>3</v>
+      </c>
+      <c r="X80">
+        <v>1</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="3">
+        <v>46017</v>
+      </c>
+      <c r="E81" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>décembre</v>
+      </c>
+      <c r="F81" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" t="s">
+        <v>171</v>
+      </c>
+      <c r="H81" t="s">
+        <v>33</v>
+      </c>
+      <c r="I81" t="s">
+        <v>34</v>
+      </c>
+      <c r="K81" t="s">
+        <v>35</v>
+      </c>
+      <c r="O81">
+        <v>540</v>
+      </c>
+      <c r="P81">
+        <v>376</v>
+      </c>
+      <c r="U81" t="s">
+        <v>36</v>
+      </c>
+      <c r="V81">
+        <v>2</v>
+      </c>
+      <c r="X81" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="3">
+        <v>46017</v>
+      </c>
+      <c r="E82" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>décembre</v>
+      </c>
+      <c r="F82" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" t="s">
+        <v>171</v>
+      </c>
+      <c r="H82" t="s">
+        <v>33</v>
+      </c>
+      <c r="I82" t="s">
+        <v>34</v>
+      </c>
+      <c r="K82" t="s">
+        <v>35</v>
+      </c>
+      <c r="O82">
+        <v>654</v>
+      </c>
+      <c r="P82">
+        <v>470</v>
+      </c>
+      <c r="U82" t="s">
+        <v>67</v>
+      </c>
+      <c r="X82" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="3">
+        <v>46017</v>
+      </c>
+      <c r="E83" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>décembre</v>
+      </c>
+      <c r="F83" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" t="s">
+        <v>171</v>
+      </c>
+      <c r="H83" t="s">
+        <v>33</v>
+      </c>
+      <c r="I83" t="s">
+        <v>34</v>
+      </c>
+      <c r="K83" t="s">
+        <v>35</v>
+      </c>
+      <c r="O83">
+        <v>520</v>
+      </c>
+      <c r="P83">
+        <v>369</v>
+      </c>
+      <c r="U83" t="s">
+        <v>37</v>
+      </c>
+      <c r="V83">
+        <v>4</v>
+      </c>
+      <c r="X83" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="3">
+        <v>46017</v>
+      </c>
+      <c r="E84" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>décembre</v>
+      </c>
+      <c r="F84" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" t="s">
+        <v>171</v>
+      </c>
+      <c r="H84" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84" t="s">
+        <v>34</v>
+      </c>
+      <c r="K84" t="s">
+        <v>35</v>
+      </c>
+      <c r="O84">
+        <v>651</v>
+      </c>
+      <c r="P84">
+        <v>445</v>
+      </c>
+      <c r="U84" t="s">
+        <v>36</v>
+      </c>
+      <c r="V84">
+        <v>2</v>
+      </c>
+      <c r="X84" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="3">
+        <v>46017</v>
+      </c>
+      <c r="E85" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>décembre</v>
+      </c>
+      <c r="F85" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" t="s">
+        <v>171</v>
+      </c>
+      <c r="H85" t="s">
+        <v>33</v>
+      </c>
+      <c r="I85" t="s">
+        <v>34</v>
+      </c>
+      <c r="K85" t="s">
+        <v>35</v>
+      </c>
+      <c r="O85">
+        <v>739</v>
+      </c>
+      <c r="P85">
+        <v>529</v>
+      </c>
+      <c r="U85" t="s">
+        <v>37</v>
+      </c>
+      <c r="V85">
+        <v>4</v>
+      </c>
+      <c r="X85">
+        <v>4</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="3">
+        <v>46017</v>
+      </c>
+      <c r="E86" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>décembre</v>
+      </c>
+      <c r="F86" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" t="s">
+        <v>171</v>
+      </c>
+      <c r="H86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I86" t="s">
+        <v>34</v>
+      </c>
+      <c r="K86" t="s">
+        <v>35</v>
+      </c>
+      <c r="O86">
+        <v>891</v>
+      </c>
+      <c r="P86">
+        <v>572</v>
+      </c>
+      <c r="U86" t="s">
+        <v>37</v>
+      </c>
+      <c r="V86">
+        <v>5</v>
+      </c>
+      <c r="X86">
+        <v>8</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" t="s">
+        <v>66</v>
+      </c>
+      <c r="D87" s="3">
+        <v>46017</v>
+      </c>
+      <c r="E87" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>décembre</v>
+      </c>
+      <c r="F87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" t="s">
+        <v>171</v>
+      </c>
+      <c r="H87" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" t="s">
+        <v>34</v>
+      </c>
+      <c r="K87" t="s">
+        <v>35</v>
+      </c>
+      <c r="O87">
+        <v>317</v>
+      </c>
+      <c r="P87">
+        <v>277</v>
+      </c>
+      <c r="U87" t="s">
+        <v>67</v>
+      </c>
+      <c r="X87" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" t="s">
+        <v>45</v>
+      </c>
+      <c r="D88" s="3">
+        <v>46017</v>
+      </c>
+      <c r="E88" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>décembre</v>
+      </c>
+      <c r="F88" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" t="s">
+        <v>171</v>
+      </c>
+      <c r="H88" t="s">
+        <v>33</v>
+      </c>
+      <c r="I88" t="s">
+        <v>34</v>
+      </c>
+      <c r="K88" t="s">
+        <v>35</v>
+      </c>
+      <c r="O88">
+        <v>324</v>
+      </c>
+      <c r="P88">
+        <v>279</v>
+      </c>
+      <c r="U88" t="s">
+        <v>36</v>
+      </c>
+      <c r="V88">
+        <v>4</v>
+      </c>
+      <c r="X88">
+        <v>14</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" t="s">
+        <v>45</v>
+      </c>
+      <c r="D89" s="3">
+        <v>46017</v>
+      </c>
+      <c r="E89" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>décembre</v>
+      </c>
+      <c r="F89" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" t="s">
+        <v>171</v>
+      </c>
+      <c r="H89" t="s">
+        <v>33</v>
+      </c>
+      <c r="I89" t="s">
+        <v>34</v>
+      </c>
+      <c r="K89" t="s">
+        <v>35</v>
+      </c>
+      <c r="O89">
+        <v>402</v>
+      </c>
+      <c r="P89">
+        <v>348</v>
+      </c>
+      <c r="U89" t="s">
+        <v>36</v>
+      </c>
+      <c r="V89">
+        <v>5</v>
+      </c>
+      <c r="X89">
+        <v>18</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90" s="3">
+        <v>46017</v>
+      </c>
+      <c r="E90" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>décembre</v>
+      </c>
+      <c r="F90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" t="s">
+        <v>171</v>
+      </c>
+      <c r="H90" t="s">
+        <v>33</v>
+      </c>
+      <c r="I90" t="s">
+        <v>34</v>
+      </c>
+      <c r="K90" t="s">
+        <v>35</v>
+      </c>
+      <c r="O90">
+        <v>740</v>
+      </c>
+      <c r="P90">
+        <v>635</v>
+      </c>
+      <c r="U90" t="s">
+        <v>37</v>
+      </c>
+      <c r="V90">
+        <v>3</v>
+      </c>
+      <c r="X90">
+        <v>1</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" t="s">
+        <v>82</v>
+      </c>
+      <c r="D91" s="3">
+        <v>46017</v>
+      </c>
+      <c r="E91" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>décembre</v>
+      </c>
+      <c r="F91" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" t="s">
+        <v>171</v>
+      </c>
+      <c r="H91" t="s">
+        <v>33</v>
+      </c>
+      <c r="I91" t="s">
+        <v>34</v>
+      </c>
+      <c r="K91" t="s">
+        <v>35</v>
+      </c>
+      <c r="O91">
+        <v>575</v>
+      </c>
+      <c r="P91">
+        <v>490</v>
+      </c>
+      <c r="U91" t="s">
+        <v>37</v>
+      </c>
+      <c r="V91">
+        <v>2</v>
+      </c>
+      <c r="X91">
+        <v>1</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>174</v>
+      </c>
+      <c r="B92" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" s="3">
+        <v>46024</v>
+      </c>
+      <c r="E92" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>janvier</v>
+      </c>
+      <c r="F92" t="s">
+        <v>31</v>
+      </c>
+      <c r="G92" t="s">
+        <v>184</v>
+      </c>
+      <c r="H92" t="s">
+        <v>33</v>
+      </c>
+      <c r="I92" t="s">
+        <v>34</v>
+      </c>
+      <c r="K92" t="s">
+        <v>35</v>
+      </c>
+      <c r="O92">
+        <v>1267</v>
+      </c>
+      <c r="P92">
+        <v>794</v>
+      </c>
+      <c r="U92" t="s">
+        <v>37</v>
+      </c>
+      <c r="V92">
+        <v>3</v>
+      </c>
+      <c r="X92">
+        <v>24</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" s="3">
+        <v>46025</v>
+      </c>
+      <c r="E93" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>janvier</v>
+      </c>
+      <c r="F93" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" t="s">
+        <v>184</v>
+      </c>
+      <c r="H93" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" t="s">
+        <v>34</v>
+      </c>
+      <c r="K93" t="s">
+        <v>35</v>
+      </c>
+      <c r="O93">
+        <v>1167</v>
+      </c>
+      <c r="P93">
+        <v>757</v>
+      </c>
+      <c r="U93" t="s">
+        <v>36</v>
+      </c>
+      <c r="V93">
+        <v>3</v>
+      </c>
+      <c r="X93">
+        <v>22</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>176</v>
+      </c>
+      <c r="B94" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" s="3">
+        <v>46026</v>
+      </c>
+      <c r="E94" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>janvier</v>
+      </c>
+      <c r="F94" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" t="s">
+        <v>184</v>
+      </c>
+      <c r="H94" t="s">
+        <v>33</v>
+      </c>
+      <c r="I94" t="s">
+        <v>34</v>
+      </c>
+      <c r="K94" t="s">
+        <v>35</v>
+      </c>
+      <c r="O94">
+        <v>939</v>
+      </c>
+      <c r="P94">
+        <v>619</v>
+      </c>
+      <c r="U94" t="s">
+        <v>37</v>
+      </c>
+      <c r="V94">
+        <v>2</v>
+      </c>
+      <c r="X94" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>177</v>
+      </c>
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="3">
+        <v>46027</v>
+      </c>
+      <c r="E95" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>janvier</v>
+      </c>
+      <c r="F95" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" t="s">
+        <v>184</v>
+      </c>
+      <c r="H95" t="s">
+        <v>33</v>
+      </c>
+      <c r="I95" t="s">
+        <v>34</v>
+      </c>
+      <c r="K95" t="s">
+        <v>35</v>
+      </c>
+      <c r="O95">
+        <v>921</v>
+      </c>
+      <c r="P95">
+        <v>556</v>
+      </c>
+      <c r="U95" t="s">
+        <v>67</v>
+      </c>
+      <c r="X95" s="4"/>
+      <c r="Z95" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>178</v>
+      </c>
+      <c r="B96" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D96" s="3">
+        <v>46028</v>
+      </c>
+      <c r="E96" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>janvier</v>
+      </c>
+      <c r="F96" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" t="s">
+        <v>184</v>
+      </c>
+      <c r="H96" t="s">
+        <v>33</v>
+      </c>
+      <c r="I96" t="s">
+        <v>34</v>
+      </c>
+      <c r="K96" t="s">
+        <v>35</v>
+      </c>
+      <c r="O96">
+        <v>795</v>
+      </c>
+      <c r="P96">
+        <v>694</v>
+      </c>
+      <c r="U96" t="s">
+        <v>36</v>
+      </c>
+      <c r="V96">
+        <v>3</v>
+      </c>
+      <c r="X96">
+        <v>16</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>179</v>
+      </c>
+      <c r="B97" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" t="s">
+        <v>45</v>
+      </c>
+      <c r="D97" s="3">
+        <v>46029</v>
+      </c>
+      <c r="E97" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>janvier</v>
+      </c>
+      <c r="F97" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" t="s">
+        <v>184</v>
+      </c>
+      <c r="H97" t="s">
+        <v>33</v>
+      </c>
+      <c r="I97" t="s">
+        <v>34</v>
+      </c>
+      <c r="K97" t="s">
+        <v>35</v>
+      </c>
+      <c r="O97">
+        <v>659</v>
+      </c>
+      <c r="P97">
+        <v>565</v>
+      </c>
+      <c r="U97" t="s">
+        <v>37</v>
+      </c>
+      <c r="V97">
+        <v>3</v>
+      </c>
+      <c r="X97" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" s="3">
+        <v>46030</v>
+      </c>
+      <c r="E98" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>janvier</v>
+      </c>
+      <c r="F98" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98" t="s">
+        <v>184</v>
+      </c>
+      <c r="H98" t="s">
+        <v>33</v>
+      </c>
+      <c r="I98" t="s">
+        <v>34</v>
+      </c>
+      <c r="K98" t="s">
+        <v>35</v>
+      </c>
+      <c r="O98">
+        <v>590</v>
+      </c>
+      <c r="P98">
+        <v>508</v>
+      </c>
+      <c r="U98" t="s">
+        <v>37</v>
+      </c>
+      <c r="V98">
+        <v>2</v>
+      </c>
+      <c r="X98" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>181</v>
+      </c>
+      <c r="B99" t="s">
+        <v>44</v>
+      </c>
+      <c r="C99" t="s">
+        <v>45</v>
+      </c>
+      <c r="D99" s="3">
+        <v>46031</v>
+      </c>
+      <c r="E99" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>janvier</v>
+      </c>
+      <c r="F99" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" t="s">
+        <v>184</v>
+      </c>
+      <c r="H99" t="s">
+        <v>33</v>
+      </c>
+      <c r="I99" t="s">
+        <v>34</v>
+      </c>
+      <c r="K99" t="s">
+        <v>35</v>
+      </c>
+      <c r="O99">
+        <v>421</v>
+      </c>
+      <c r="P99">
+        <v>365</v>
+      </c>
+      <c r="U99" t="s">
+        <v>36</v>
+      </c>
+      <c r="V99">
+        <v>3</v>
+      </c>
+      <c r="X99">
+        <v>18</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>182</v>
+      </c>
+      <c r="B100" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" t="s">
+        <v>45</v>
+      </c>
+      <c r="D100" s="3">
+        <v>46032</v>
+      </c>
+      <c r="E100" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>janvier</v>
+      </c>
+      <c r="F100" t="s">
+        <v>31</v>
+      </c>
+      <c r="G100" t="s">
+        <v>184</v>
+      </c>
+      <c r="H100" t="s">
+        <v>33</v>
+      </c>
+      <c r="I100" t="s">
+        <v>34</v>
+      </c>
+      <c r="K100" t="s">
+        <v>35</v>
+      </c>
+      <c r="O100">
+        <v>445</v>
+      </c>
+      <c r="P100">
+        <v>385</v>
+      </c>
+      <c r="U100" t="s">
+        <v>36</v>
+      </c>
+      <c r="V100">
+        <v>3</v>
+      </c>
+      <c r="X100">
+        <v>10</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>183</v>
+      </c>
+      <c r="B101" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" t="s">
+        <v>45</v>
+      </c>
+      <c r="D101" s="3">
+        <v>46033</v>
+      </c>
+      <c r="E101" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>janvier</v>
+      </c>
+      <c r="F101" t="s">
+        <v>31</v>
+      </c>
+      <c r="G101" t="s">
+        <v>184</v>
+      </c>
+      <c r="H101" t="s">
+        <v>33</v>
+      </c>
+      <c r="I101" t="s">
+        <v>34</v>
+      </c>
+      <c r="K101" t="s">
+        <v>35</v>
+      </c>
+      <c r="O101">
+        <v>335</v>
+      </c>
+      <c r="P101">
+        <v>289</v>
+      </c>
+      <c r="U101" t="s">
+        <v>37</v>
+      </c>
+      <c r="V101">
+        <v>2</v>
+      </c>
+      <c r="X101" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
